--- a/docs/SCRATCH應用競賽國中甲組程式設計組決賽名冊.xlsx
+++ b/docs/SCRATCH應用競賽國中甲組程式設計組決賽名冊.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="217">
   <si>
     <t>序</t>
   </si>
@@ -48,247 +48,163 @@
     <t>大甲區大甲國中</t>
   </si>
   <si>
-    <t>嚴偉哲</t>
+    <t>郭碧崑</t>
   </si>
   <si>
     <t>王俊祺</t>
   </si>
   <si>
-    <t>dxb7tv2</t>
-  </si>
-  <si>
-    <t>gwh46d2</t>
-  </si>
-  <si>
-    <t>陳勁言</t>
-  </si>
-  <si>
-    <t>gwh99xb9</t>
-  </si>
-  <si>
-    <t>r17yg1</t>
-  </si>
-  <si>
-    <t>蔡昌霖</t>
-  </si>
-  <si>
-    <t>fr41xb5</t>
-  </si>
-  <si>
-    <t>wh77kf6</t>
-  </si>
-  <si>
-    <t>郭碧崑</t>
-  </si>
-  <si>
-    <t>c16xb8</t>
-  </si>
-  <si>
-    <t>hp17d5</t>
-  </si>
-  <si>
-    <t>大甲區順天國中</t>
-  </si>
-  <si>
-    <t>許秉豐</t>
-  </si>
-  <si>
-    <t>張志輝</t>
-  </si>
-  <si>
-    <t>gw17r9</t>
-  </si>
-  <si>
-    <t>jkf82v6</t>
-  </si>
-  <si>
-    <t>大肚區大道國中</t>
-  </si>
-  <si>
-    <t>陳冠廷</t>
-  </si>
-  <si>
-    <t>施俊楠</t>
-  </si>
-  <si>
-    <t>hp21my9</t>
-  </si>
-  <si>
-    <t>et33my1</t>
+    <t>v78tv6</t>
+  </si>
+  <si>
+    <t>dxb37pe3</t>
+  </si>
+  <si>
+    <t>洪煒傑</t>
+  </si>
+  <si>
+    <t>x9tv2</t>
+  </si>
+  <si>
+    <t>x50fr4</t>
+  </si>
+  <si>
+    <t>邱紹睿</t>
+  </si>
+  <si>
+    <t>pe89d3</t>
+  </si>
+  <si>
+    <t>sm23pe7</t>
+  </si>
+  <si>
+    <t>翁席竑</t>
+  </si>
+  <si>
+    <t>kf33bj4</t>
+  </si>
+  <si>
+    <t>hp51m7</t>
   </si>
   <si>
     <t>大里區光榮國中</t>
   </si>
   <si>
-    <t>王子元</t>
+    <t>吳璿宇</t>
+  </si>
+  <si>
+    <t>劉欣芝</t>
+  </si>
+  <si>
+    <t>xb70cd9</t>
+  </si>
+  <si>
+    <t>hp92f2</t>
+  </si>
+  <si>
+    <t>鄭允迦</t>
   </si>
   <si>
     <t>宋沛寰</t>
   </si>
   <si>
-    <t>dx80p4</t>
-  </si>
-  <si>
-    <t>w82e8</t>
+    <t>cd82b6</t>
+  </si>
+  <si>
+    <t>k45pe2</t>
   </si>
   <si>
     <t>大里區成功國中</t>
   </si>
   <si>
-    <t>賈雲翔</t>
-  </si>
-  <si>
-    <t>許榮栓</t>
-  </si>
-  <si>
-    <t>hpe56rs6</t>
-  </si>
-  <si>
-    <t>myg99kf8</t>
+    <t>蕭宇呈</t>
+  </si>
+  <si>
+    <t>賴姿婷</t>
+  </si>
+  <si>
+    <t>yg46fr2</t>
+  </si>
+  <si>
+    <t>w61gw3</t>
   </si>
   <si>
     <t>大里區爽文國中</t>
   </si>
   <si>
-    <t>于子恩</t>
+    <t>蔡昕雅</t>
   </si>
   <si>
     <t>王心利</t>
   </si>
   <si>
-    <t>yg56c6</t>
-  </si>
-  <si>
-    <t>dx13m5</t>
-  </si>
-  <si>
-    <t>蔡昕雅</t>
-  </si>
-  <si>
-    <t>sm17g2</t>
-  </si>
-  <si>
-    <t>fr42jk2</t>
-  </si>
-  <si>
-    <t>林寬</t>
-  </si>
-  <si>
-    <t>nc94j6</t>
-  </si>
-  <si>
-    <t>kfr69sm2</t>
+    <t>dx6dx7</t>
+  </si>
+  <si>
+    <t>g82dx8</t>
+  </si>
+  <si>
+    <t>曹育誠</t>
+  </si>
+  <si>
+    <t>et71n7</t>
+  </si>
+  <si>
+    <t>ygw5e7</t>
   </si>
   <si>
     <t>大雅區大雅國中</t>
   </si>
   <si>
-    <t>高昱哲</t>
+    <t>蘇俐行</t>
   </si>
   <si>
     <t>張光昭</t>
   </si>
   <si>
-    <t>bj96hp3</t>
-  </si>
-  <si>
-    <t>xb20nc6</t>
-  </si>
-  <si>
-    <t>太平區新光國中</t>
-  </si>
-  <si>
-    <t>陳泓儒</t>
-  </si>
-  <si>
-    <t>陳宗生</t>
-  </si>
-  <si>
-    <t>anc23nc8</t>
-  </si>
-  <si>
-    <t>bj69e7</t>
-  </si>
-  <si>
-    <t>陳柏林</t>
-  </si>
-  <si>
-    <t>pet42v1</t>
-  </si>
-  <si>
-    <t>yg85sm8</t>
-  </si>
-  <si>
-    <t>北屯區北新國中</t>
-  </si>
-  <si>
-    <t>邱聖佐</t>
-  </si>
-  <si>
-    <t>游世南</t>
-  </si>
-  <si>
-    <t>x92j2</t>
-  </si>
-  <si>
-    <t>an87h9</t>
-  </si>
-  <si>
-    <t>林思偉</t>
-  </si>
-  <si>
-    <t>hp3bj1</t>
-  </si>
-  <si>
-    <t>sm32sm8</t>
-  </si>
-  <si>
-    <t>陳郁昇</t>
-  </si>
-  <si>
-    <t>nc36g1</t>
-  </si>
-  <si>
-    <t>nc18nc6</t>
-  </si>
-  <si>
-    <t>北屯區東山高中</t>
-  </si>
-  <si>
-    <t>莊承儒</t>
-  </si>
-  <si>
-    <t>鍾蕙如</t>
-  </si>
-  <si>
-    <t>c74d8</t>
-  </si>
-  <si>
-    <t>m35d6</t>
-  </si>
-  <si>
-    <t>劉汎楷</t>
-  </si>
-  <si>
-    <t>林昌宏</t>
-  </si>
-  <si>
-    <t>tv9et6</t>
-  </si>
-  <si>
-    <t>d14f3</t>
-  </si>
-  <si>
-    <t>方傳裕</t>
-  </si>
-  <si>
-    <t>廖國巽</t>
-  </si>
-  <si>
-    <t>w62c7</t>
-  </si>
-  <si>
-    <t>gw16k6</t>
+    <t>x47tv5</t>
+  </si>
+  <si>
+    <t>sm56jk4</t>
+  </si>
+  <si>
+    <t>陳毓琳</t>
+  </si>
+  <si>
+    <t>jk74m2</t>
+  </si>
+  <si>
+    <t>p16g5</t>
+  </si>
+  <si>
+    <t>太平區太平國中</t>
+  </si>
+  <si>
+    <t>蔡仁捷</t>
+  </si>
+  <si>
+    <t>邱堯章</t>
+  </si>
+  <si>
+    <t>xb10d4</t>
+  </si>
+  <si>
+    <t>sm44rs4</t>
+  </si>
+  <si>
+    <t>太平區長億高中</t>
+  </si>
+  <si>
+    <t>黃子懿</t>
+  </si>
+  <si>
+    <t>鄭瑞娟</t>
+  </si>
+  <si>
+    <t>rs15hp6</t>
+  </si>
+  <si>
+    <t>xbj48t2</t>
   </si>
   <si>
     <t>北屯區崇德國中</t>
@@ -300,202 +216,232 @@
     <t>林秀珍</t>
   </si>
   <si>
-    <t>xbj43r5</t>
-  </si>
-  <si>
-    <t>xb44k6</t>
+    <t>anc90jk5</t>
+  </si>
+  <si>
+    <t>yg65r5</t>
+  </si>
+  <si>
+    <t>別鎮桓</t>
+  </si>
+  <si>
+    <t>fr23x7</t>
+  </si>
+  <si>
+    <t>y72c3</t>
   </si>
   <si>
     <t>北屯區衛道高中</t>
   </si>
   <si>
-    <t>楊記鋼</t>
-  </si>
-  <si>
-    <t>曾俊傑</t>
-  </si>
-  <si>
-    <t>et17n8</t>
-  </si>
-  <si>
-    <t>r80f3</t>
-  </si>
-  <si>
-    <t>李沛航</t>
-  </si>
-  <si>
-    <t>蔡欣妮</t>
-  </si>
-  <si>
-    <t>tv1x1</t>
-  </si>
-  <si>
-    <t>myg45fr2</t>
+    <t>羅立安</t>
+  </si>
+  <si>
+    <t>程瑋翔</t>
+  </si>
+  <si>
+    <t>tv47x3</t>
+  </si>
+  <si>
+    <t>myg28y1</t>
   </si>
   <si>
     <t>董鎧安</t>
   </si>
   <si>
-    <t>hpe91et2</t>
-  </si>
-  <si>
-    <t>et78r4</t>
+    <t>smy59s8</t>
+  </si>
+  <si>
+    <t>kf23y4</t>
+  </si>
+  <si>
+    <t>林承翰</t>
+  </si>
+  <si>
+    <t>d31pe5</t>
+  </si>
+  <si>
+    <t>dxb77nc8</t>
+  </si>
+  <si>
+    <t>張仕佳</t>
+  </si>
+  <si>
+    <t>g60dx6</t>
+  </si>
+  <si>
+    <t>pet45yg1</t>
   </si>
   <si>
     <t>北區五權國中</t>
   </si>
   <si>
-    <t>蔡正新</t>
+    <t>江育倫</t>
   </si>
   <si>
     <t>李黛君</t>
   </si>
   <si>
-    <t>bjk17f9</t>
-  </si>
-  <si>
-    <t>my61my5</t>
+    <t>b48rs1</t>
+  </si>
+  <si>
+    <t>xbj51dx7</t>
   </si>
   <si>
     <t>蔡允維</t>
   </si>
   <si>
-    <t>tv95tv5</t>
-  </si>
-  <si>
-    <t>w43hp8</t>
-  </si>
-  <si>
-    <t>西屯區安和國中</t>
-  </si>
-  <si>
-    <t>曾崇恩</t>
+    <t>tv89w6</t>
+  </si>
+  <si>
+    <t>an52bj6</t>
+  </si>
+  <si>
+    <t>西屯區漢口國中</t>
+  </si>
+  <si>
+    <t>吳柏燁</t>
+  </si>
+  <si>
+    <t>陳嘉祥</t>
+  </si>
+  <si>
+    <t>y6kf5</t>
+  </si>
+  <si>
+    <t>g25dx2</t>
+  </si>
+  <si>
+    <t>藍序酉</t>
+  </si>
+  <si>
+    <t>顏永山</t>
+  </si>
+  <si>
+    <t>nc85m7</t>
+  </si>
+  <si>
+    <t>wh70d8</t>
+  </si>
+  <si>
+    <t>鄭家德</t>
+  </si>
+  <si>
+    <t>xbj63j5</t>
+  </si>
+  <si>
+    <t>bj60gw1</t>
+  </si>
+  <si>
+    <t>西屯區福科國中</t>
+  </si>
+  <si>
+    <t>胡凱鈞</t>
+  </si>
+  <si>
+    <t>廖勝雍</t>
+  </si>
+  <si>
+    <t>pe15x6</t>
+  </si>
+  <si>
+    <t>smy87bj7</t>
+  </si>
+  <si>
+    <t>西區光明國中</t>
+  </si>
+  <si>
+    <t>林和宇</t>
+  </si>
+  <si>
+    <t>劉容菁</t>
+  </si>
+  <si>
+    <t>yg80t2</t>
+  </si>
+  <si>
+    <t>v61cd2</t>
+  </si>
+  <si>
+    <t>林峻睿</t>
+  </si>
+  <si>
+    <t>hp19pe3</t>
+  </si>
+  <si>
+    <t>gw10pe9</t>
+  </si>
+  <si>
+    <t>西區向上國中</t>
+  </si>
+  <si>
+    <t>陳俠夫</t>
   </si>
   <si>
     <t>林義雄</t>
   </si>
   <si>
-    <t>nc53h7</t>
-  </si>
-  <si>
-    <t>bj7n9</t>
-  </si>
-  <si>
-    <t>西屯區西苑高中</t>
-  </si>
-  <si>
-    <t>洪啟翔</t>
-  </si>
-  <si>
-    <t>劉雅詩</t>
-  </si>
-  <si>
-    <t>e33rs4</t>
-  </si>
-  <si>
-    <t>et50hp7</t>
-  </si>
-  <si>
-    <t>西屯區漢口國中</t>
-  </si>
-  <si>
-    <t>吳柏燁</t>
-  </si>
-  <si>
-    <t>黃仁芷</t>
-  </si>
-  <si>
-    <t>dx51m4</t>
-  </si>
-  <si>
-    <t>fr6my2</t>
-  </si>
-  <si>
-    <t>徐君侑</t>
-  </si>
-  <si>
-    <t>kfr64xb5</t>
-  </si>
-  <si>
-    <t>cdx64tv5</t>
-  </si>
-  <si>
-    <t>藍序酉</t>
-  </si>
-  <si>
-    <t>f75j5</t>
-  </si>
-  <si>
-    <t>smy48et4</t>
-  </si>
-  <si>
-    <t>西屯區福科國中</t>
-  </si>
-  <si>
-    <t>林宏信</t>
-  </si>
-  <si>
-    <t>廖勝雍</t>
-  </si>
-  <si>
-    <t>xbj50p8</t>
-  </si>
-  <si>
-    <t>frs87w7</t>
-  </si>
-  <si>
-    <t>林辰叡</t>
-  </si>
-  <si>
-    <t>bj68b1</t>
-  </si>
-  <si>
-    <t>nc39fr8</t>
-  </si>
-  <si>
-    <t>丁勇智</t>
-  </si>
-  <si>
-    <t>rsm2rs8</t>
-  </si>
-  <si>
-    <t>my14p1</t>
+    <t>nc71rs6</t>
+  </si>
+  <si>
+    <t>yg21x3</t>
+  </si>
+  <si>
+    <t>西區居仁國中</t>
+  </si>
+  <si>
+    <t>蔡昀融</t>
+  </si>
+  <si>
+    <t>吳智偉</t>
+  </si>
+  <si>
+    <t>m67e5</t>
+  </si>
+  <si>
+    <t>jk4f5</t>
+  </si>
+  <si>
+    <t>蔡嘉祐</t>
+  </si>
+  <si>
+    <t>s47et8</t>
+  </si>
+  <si>
+    <t>xb69sm3</t>
+  </si>
+  <si>
+    <t>祝心緯</t>
+  </si>
+  <si>
+    <t>fr8rs6</t>
+  </si>
+  <si>
+    <t>kfr50a8</t>
+  </si>
+  <si>
+    <t>蔡忠翰</t>
+  </si>
+  <si>
+    <t>kf74hp6</t>
+  </si>
+  <si>
+    <t>sm28e2</t>
   </si>
   <si>
     <t>西區忠明高中</t>
   </si>
   <si>
-    <t>張俊昌</t>
+    <t>林煥晨</t>
   </si>
   <si>
     <t>劉宜欣</t>
   </si>
   <si>
-    <t>k2pe8</t>
-  </si>
-  <si>
-    <t>et45my1</t>
-  </si>
-  <si>
-    <t>鍾帛勳</t>
-  </si>
-  <si>
-    <t>劉容菁</t>
-  </si>
-  <si>
-    <t>xb33bj3</t>
-  </si>
-  <si>
-    <t>my71e4</t>
-  </si>
-  <si>
-    <t>謝歷恩</t>
-  </si>
-  <si>
-    <t>tv18cd3</t>
-  </si>
-  <si>
-    <t>cd49s2</t>
+    <t>h9v5</t>
+  </si>
+  <si>
+    <t>jk97wh1</t>
   </si>
   <si>
     <t>沙鹿區沙鹿國中</t>
@@ -507,70 +453,91 @@
     <t>王春昇</t>
   </si>
   <si>
-    <t>pe9wh9</t>
-  </si>
-  <si>
-    <t>jk83gw1</t>
-  </si>
-  <si>
-    <t>陳意舒</t>
-  </si>
-  <si>
-    <t>sm88sm2</t>
-  </si>
-  <si>
-    <t>d95b3</t>
+    <t>v21gw5</t>
+  </si>
+  <si>
+    <t>yg55d6</t>
+  </si>
+  <si>
+    <t>陳柏諧</t>
+  </si>
+  <si>
+    <t>g22fr6</t>
+  </si>
+  <si>
+    <t>ygw6k3</t>
   </si>
   <si>
     <t>南屯區大業國中</t>
   </si>
   <si>
-    <t>蔡維元</t>
-  </si>
-  <si>
-    <t>陳易紘</t>
-  </si>
-  <si>
-    <t>my95kf4</t>
-  </si>
-  <si>
-    <t>whp8a3</t>
-  </si>
-  <si>
-    <t>陳奕安</t>
-  </si>
-  <si>
-    <t>nc66a8</t>
-  </si>
-  <si>
-    <t>s47s6</t>
+    <t>戴煦</t>
+  </si>
+  <si>
+    <t>江俞學</t>
+  </si>
+  <si>
+    <t>anc2rs2</t>
+  </si>
+  <si>
+    <t>f98bj9</t>
+  </si>
+  <si>
+    <t>陳念正</t>
+  </si>
+  <si>
+    <t>kf22an8</t>
+  </si>
+  <si>
+    <t>fr95s6</t>
   </si>
   <si>
     <t>南區崇倫國中</t>
   </si>
   <si>
+    <t>陳羿君</t>
+  </si>
+  <si>
+    <t>林麗萍</t>
+  </si>
+  <si>
+    <t>an39d5</t>
+  </si>
+  <si>
+    <t>et48cd2</t>
+  </si>
+  <si>
+    <t>陳鵲文</t>
+  </si>
+  <si>
+    <t>黃忠志</t>
+  </si>
+  <si>
+    <t>my59wh1</t>
+  </si>
+  <si>
+    <t>gw11w3</t>
+  </si>
+  <si>
+    <t>呂和鑫</t>
+  </si>
+  <si>
+    <t>v5v7</t>
+  </si>
+  <si>
+    <t>an78tv8</t>
+  </si>
+  <si>
     <t>曾家翔</t>
   </si>
   <si>
-    <t>程愛真</t>
-  </si>
-  <si>
-    <t>xbj14n3</t>
-  </si>
-  <si>
-    <t>hpe92et6</t>
-  </si>
-  <si>
-    <t>林紘偉</t>
-  </si>
-  <si>
-    <t>林麗萍</t>
-  </si>
-  <si>
-    <t>hpe24e5</t>
-  </si>
-  <si>
-    <t>jkf27c3</t>
+    <t>曾曉芬</t>
+  </si>
+  <si>
+    <t>k15g3</t>
+  </si>
+  <si>
+    <t>a49j8</t>
   </si>
   <si>
     <t>烏日區光德國中</t>
@@ -582,106 +549,127 @@
     <t>陳立唐</t>
   </si>
   <si>
-    <t>b80p5</t>
-  </si>
-  <si>
-    <t>sm26x8</t>
-  </si>
-  <si>
-    <t>顏易逵</t>
-  </si>
-  <si>
-    <t>s14nc6</t>
-  </si>
-  <si>
-    <t>smy71j4</t>
+    <t>wh69j8</t>
+  </si>
+  <si>
+    <t>pet6w6</t>
   </si>
   <si>
     <t>烏日區明道中學</t>
   </si>
   <si>
-    <t>黃承傑</t>
+    <t>王彥澄</t>
   </si>
   <si>
     <t>連振嘉</t>
   </si>
   <si>
-    <t>gw69tv5</t>
-  </si>
-  <si>
-    <t>w84dx9</t>
-  </si>
-  <si>
-    <t>陳彥廷</t>
-  </si>
-  <si>
-    <t>x15yg6</t>
-  </si>
-  <si>
-    <t>g85yg7</t>
+    <t>kf41w3</t>
+  </si>
+  <si>
+    <t>et29b8</t>
+  </si>
+  <si>
+    <t>賴郁達</t>
+  </si>
+  <si>
+    <t>my60tv6</t>
+  </si>
+  <si>
+    <t>jk33e5</t>
+  </si>
+  <si>
+    <t>鄧均淮</t>
+  </si>
+  <si>
+    <t>bjk22v4</t>
+  </si>
+  <si>
+    <t>smy30w7</t>
+  </si>
+  <si>
+    <t>顏柏智</t>
+  </si>
+  <si>
+    <t>yg3s5</t>
+  </si>
+  <si>
+    <t>smy7my3</t>
+  </si>
+  <si>
+    <t>潭子區潭秀國中</t>
+  </si>
+  <si>
+    <t>許政軒</t>
+  </si>
+  <si>
+    <t>謝岳</t>
+  </si>
+  <si>
+    <t>rs14d5</t>
+  </si>
+  <si>
+    <t>tv46k6</t>
   </si>
   <si>
     <t>豐原區豐東國中</t>
   </si>
   <si>
-    <t>葉繼謙</t>
-  </si>
-  <si>
-    <t>曾希正</t>
-  </si>
-  <si>
-    <t>k52h8</t>
-  </si>
-  <si>
-    <t>gw83p3</t>
-  </si>
-  <si>
-    <t>張倍瑚</t>
-  </si>
-  <si>
-    <t>孫志宏</t>
-  </si>
-  <si>
-    <t>my79sm9</t>
-  </si>
-  <si>
-    <t>k83nc6</t>
+    <t>郭穀盛</t>
+  </si>
+  <si>
+    <t>史國維</t>
+  </si>
+  <si>
+    <t>f72bj1</t>
+  </si>
+  <si>
+    <t>rs57j5</t>
+  </si>
+  <si>
+    <t>張育豪</t>
+  </si>
+  <si>
+    <t>myg3dx4</t>
+  </si>
+  <si>
+    <t>hp38t3</t>
+  </si>
+  <si>
+    <t>陳湧佳</t>
+  </si>
+  <si>
+    <t>fr52b3</t>
+  </si>
+  <si>
+    <t>jkf58rs4</t>
   </si>
   <si>
     <t>豐原區豐南國中</t>
   </si>
   <si>
-    <t>許睦群</t>
-  </si>
-  <si>
-    <t>陳鈺錡</t>
-  </si>
-  <si>
-    <t>m54nc6</t>
-  </si>
-  <si>
-    <t>d28sm8</t>
-  </si>
-  <si>
-    <t>王慧新</t>
-  </si>
-  <si>
-    <t>b93wh3</t>
-  </si>
-  <si>
-    <t>w48y5</t>
-  </si>
-  <si>
-    <t>張景淳</t>
+    <t>凃旭哲</t>
+  </si>
+  <si>
+    <t>杜建忠</t>
+  </si>
+  <si>
+    <t>g48gw7</t>
+  </si>
+  <si>
+    <t>gwh76gw4</t>
+  </si>
+  <si>
+    <t>李康任</t>
   </si>
   <si>
     <t>王佩琪</t>
   </si>
   <si>
-    <t>kfr2r2</t>
-  </si>
-  <si>
-    <t>jk60f5</t>
+    <t>j69c4</t>
+  </si>
+  <si>
+    <t>n69gw9</t>
   </si>
 </sst>
 </file>
@@ -1686,8 +1674,7 @@
     <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1836,19 +1823,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1859,19 +1846,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1882,19 +1869,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1905,19 +1892,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1928,19 +1915,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1951,19 +1938,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1974,19 +1961,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1997,19 +1984,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2020,19 +2007,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2043,19 +2030,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2066,19 +2053,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2089,19 +2076,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2112,19 +2099,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>78</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2135,19 +2122,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2158,19 +2145,19 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2181,19 +2168,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2204,19 +2191,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2227,19 +2214,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2250,19 +2237,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2273,19 +2260,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2296,19 +2283,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2319,19 +2306,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2342,19 +2329,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2365,19 +2352,19 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2388,19 +2375,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2411,19 +2398,19 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2434,19 +2421,19 @@
         <v>7</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2460,16 +2447,16 @@
         <v>136</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2480,19 +2467,19 @@
         <v>7</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="8" t="s">
+      <c r="G35" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2503,19 +2490,19 @@
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2526,19 +2513,19 @@
         <v>7</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2549,19 +2536,19 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2572,19 +2559,19 @@
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="F39" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="G39" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2595,19 +2582,19 @@
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2618,19 +2605,19 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="G41" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2641,19 +2628,19 @@
         <v>7</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2664,19 +2651,19 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="F43" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="G43" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2687,19 +2674,19 @@
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D44" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2710,19 +2697,19 @@
         <v>7</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="G45" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2733,19 +2720,19 @@
         <v>7</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2756,19 +2743,19 @@
         <v>7</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2782,16 +2769,16 @@
         <v>192</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>194</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2802,19 +2789,19 @@
         <v>7</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="G49" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2825,19 +2812,19 @@
         <v>7</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2848,19 +2835,19 @@
         <v>7</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2871,19 +2858,19 @@
         <v>7</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="E52" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="G52" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2894,19 +2881,19 @@
         <v>7</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
